--- a/biology/Médecine/Gélatine_de_peau_d'âne/Gélatine_de_peau_d'âne.xlsx
+++ b/biology/Médecine/Gélatine_de_peau_d'âne/Gélatine_de_peau_d'âne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9latine_de_peau_d%27%C3%A2ne</t>
+          <t>Gélatine_de_peau_d'âne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La gélatine de peau d'âne ou ejiao est une substance issue de la peau de  utilisée notamment dans la médecine traditionnelle chinoise mais aussi pour la fabrique de gâteaux par les Chinois.
-Sa consommation est une menace pour l'espèce, qui a presque disparue en Chine, notamment en Afrique[1],[2] et plus spécialement en Afrique du Sud où ils sont volés à leurs propriétaires, ainsi que dans les pays voisins, avant d'être dépecés dans d'atroces souffrances[3].
-Cette gélatine est fabriquée à partir de protéines de collagène de la peau des ânes[4]. Elle est censée aider à soulager les saignements, les étourdissements, l'insomnie et la toux[4],[5].
+Sa consommation est une menace pour l'espèce, qui a presque disparue en Chine, notamment en Afrique, et plus spécialement en Afrique du Sud où ils sont volés à leurs propriétaires, ainsi que dans les pays voisins, avant d'être dépecés dans d'atroces souffrances.
+Cette gélatine est fabriquée à partir de protéines de collagène de la peau des ânes. Elle est censée aider à soulager les saignements, les étourdissements, l'insomnie et la toux,.
 </t>
         </is>
       </c>
